--- a/src/test/resources/Data/ArmaniTestData.xlsx
+++ b/src/test/resources/Data/ArmaniTestData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26424"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B18226D-F4AC-40C1-BE85-5795DBFEF6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FEFB850-9214-4D30-BA0B-0791363643A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="app_segment" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
     <t>HK</t>
   </si>
   <si>
-    <t>Hong Kong</t>
+    <t>Hong kong</t>
   </si>
   <si>
     <t>KR</t>
@@ -298,10 +298,10 @@
     <t>consultation</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t>no</t>
@@ -905,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -978,7 +978,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1126,7 +1126,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1745,8 +1745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9D057EF-8155-4CE7-97B9-D2790E47CEF4}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1798,22 +1798,22 @@
         <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
         <v>87</v>
       </c>
       <c r="F2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J2" t="s">
         <v>87</v>
@@ -1824,31 +1824,31 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1856,31 +1856,31 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1888,31 +1888,31 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1920,31 +1920,31 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
         <v>89</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1952,31 +1952,31 @@
         <v>90</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1984,31 +1984,31 @@
         <v>91</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2016,31 +2016,31 @@
         <v>92</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2048,31 +2048,31 @@
         <v>93</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2215,7 +2215,7 @@
   <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/src/test/resources/Data/ArmaniTestData.xlsx
+++ b/src/test/resources/Data/ArmaniTestData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26424"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FEFB850-9214-4D30-BA0B-0791363643A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F08D6833-6E04-4B36-BD61-6680A5DA5239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="app_segment" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="140">
   <si>
     <t>segment</t>
   </si>
@@ -109,10 +109,10 @@
     <t>Loreal@123</t>
   </si>
   <si>
-    <t>ZP0BA</t>
-  </si>
-  <si>
-    <t>123@Loreal</t>
+    <t>7K0BA</t>
+  </si>
+  <si>
+    <t>Loreal@4321</t>
   </si>
   <si>
     <t>RA0BBA</t>
@@ -145,7 +145,7 @@
     <t>Lo@12345</t>
   </si>
   <si>
-    <t>P16005137</t>
+    <t>P16003419</t>
   </si>
   <si>
     <t>PA99327695</t>
@@ -304,9 +304,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>MY</t>
   </si>
   <si>
@@ -340,30 +337,30 @@
     <t>First Name</t>
   </si>
   <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Client Name</t>
+  </si>
+  <si>
+    <t>名前（名）</t>
+  </si>
+  <si>
+    <t>National Id</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Mobile Number</t>
+  </si>
+  <si>
+    <t>Lucid</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Client Name</t>
-  </si>
-  <si>
-    <t>Lucid</t>
-  </si>
-  <si>
-    <t>名前（名）</t>
-  </si>
-  <si>
-    <t>National Id</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Mobile Number</t>
-  </si>
-  <si>
     <t>Name_dashboard</t>
   </si>
   <si>
@@ -388,21 +385,24 @@
     <t>Client Name_dashboard</t>
   </si>
   <si>
+    <t>a@a.com</t>
+  </si>
+  <si>
+    <t>EmptyData</t>
+  </si>
+  <si>
+    <t>Empty</t>
+  </si>
+  <si>
+    <t>45WM6000403</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
     <t>emptydatatest@gmail.com</t>
   </si>
   <si>
-    <t>EmptyData</t>
-  </si>
-  <si>
-    <t>Empty</t>
-  </si>
-  <si>
-    <t>45WM6000403</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>C70000000055715</t>
   </si>
   <si>
@@ -419,6 +419,9 @@
   </si>
   <si>
     <t>45j50007894</t>
+  </si>
+  <si>
+    <t>16ZD0006456</t>
   </si>
   <si>
     <t>product1</t>
@@ -566,7 +569,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -588,6 +591,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -905,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -978,7 +985,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1036,10 +1043,10 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1117,6 +1124,9 @@
       <c r="G6" s="6"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{2D0F4920-F208-4AAA-81AB-F940104F2687}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1126,7 +1136,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1182,11 +1192,11 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>23</v>
+      <c r="C3" t="s">
+        <v>33</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>34</v>
@@ -1746,7 +1756,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1824,10 +1834,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
         <v>87</v>
@@ -1848,7 +1858,7 @@
         <v>88</v>
       </c>
       <c r="J3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1862,25 +1872,25 @@
         <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H4" t="s">
         <v>87</v>
       </c>
       <c r="I4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1920,16 +1930,16 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F6" t="s">
         <v>87</v>
@@ -1944,12 +1954,12 @@
         <v>88</v>
       </c>
       <c r="J6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s">
         <v>88</v>
@@ -1981,7 +1991,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s">
         <v>88</v>
@@ -2013,7 +2023,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s">
         <v>88</v>
@@ -2045,7 +2055,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
         <v>88</v>
@@ -2085,7 +2095,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2095,19 +2105,19 @@
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -2117,10 +2127,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" t="s">
         <v>99</v>
-      </c>
-      <c r="C2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2128,7 +2138,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2136,7 +2146,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2144,10 +2154,10 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2155,54 +2165,54 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" t="s">
         <v>99</v>
       </c>
-      <c r="D10" t="s">
-        <v>100</v>
-      </c>
       <c r="E10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2214,12 +2224,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5829C2C0-81BF-4910-A751-FC6CBD6A43B4}">
   <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="6" max="6" width="27.28515625" customWidth="1"/>
     <col min="8" max="8" width="10.140625" customWidth="1"/>
     <col min="15" max="15" width="17" customWidth="1"/>
@@ -2230,52 +2241,52 @@
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -2285,43 +2296,43 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>117</v>
+      <c r="B2" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J2" s="4"/>
-      <c r="K2" s="4" t="s">
-        <v>117</v>
+      <c r="K2" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="P2" s="4"/>
       <c r="Q2" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -2329,46 +2340,46 @@
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>120</v>
+      <c r="F3" s="16">
+        <v>16970033466</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>122</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="N3" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>120</v>
+      <c r="O3" s="16">
+        <v>16970033466</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>122</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -2383,7 +2394,7 @@
         <v>124</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F4" t="s">
         <v>125</v>
@@ -2395,18 +2406,18 @@
         <v>124</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N4" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="O4" t="s">
         <v>125</v>
@@ -2420,47 +2431,47 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>122</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N5" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -2468,44 +2479,44 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>127</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N6" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="O6" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="P6" s="4"/>
       <c r="Q6" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -2513,171 +2524,171 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>120</v>
+      <c r="F7" t="s">
+        <v>128</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N7" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="N7" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>120</v>
+      <c r="O7" t="s">
+        <v>128</v>
       </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N8" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="O8" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N9" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="O9" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N10" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="O10" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -2698,8 +2709,9 @@
     <hyperlink ref="K10" r:id="rId11" xr:uid="{E1A0ECBA-0B9D-486C-8EB4-3154C838AF89}"/>
     <hyperlink ref="K7" r:id="rId12" xr:uid="{78478ECA-5925-4CB0-AF0C-4CA59C92FDC4}"/>
     <hyperlink ref="K9" r:id="rId13" xr:uid="{2AB4818D-F639-47DA-B335-ED6609EBCDDD}"/>
-    <hyperlink ref="K2:K4" r:id="rId14" xr:uid="{436BBE7F-749B-4CD1-9CDD-78F629781633}"/>
-    <hyperlink ref="B4" r:id="rId15" xr:uid="{D11A99F9-ECAA-4D9F-A142-BBDB986258B7}"/>
+    <hyperlink ref="B4" r:id="rId14" xr:uid="{D11A99F9-ECAA-4D9F-A142-BBDB986258B7}"/>
+    <hyperlink ref="B2" r:id="rId15" xr:uid="{A1207EE5-8407-4FE1-AD1E-A85B29158109}"/>
+    <hyperlink ref="K2" r:id="rId16" xr:uid="{510717F6-D167-43F6-9171-2369E2820AD4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2710,7 +2722,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2725,10 +2737,10 @@
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2736,18 +2748,24 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
+      <c r="B3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" t="s">
+        <v>132</v>
+      </c>
       <c r="D3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2755,10 +2773,10 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2766,10 +2784,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2777,10 +2795,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Data/ArmaniTestData.xlsx
+++ b/src/test/resources/Data/ArmaniTestData.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26522"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F08D6833-6E04-4B36-BD61-6680A5DA5239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59394BC1-618A-4719-81B1-1F22EC8C94D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="141">
   <si>
     <t>segment</t>
   </si>
@@ -416,6 +416,9 @@
   </si>
   <si>
     <t>45CA0022781</t>
+  </si>
+  <si>
+    <t>01ZY7049015</t>
   </si>
   <si>
     <t>45j50007894</t>
@@ -985,7 +988,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1136,7 +1139,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2225,7 +2228,7 @@
   <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2489,7 +2492,7 @@
         <v>118</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4" t="s">
@@ -2499,7 +2502,7 @@
         <v>120</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>121</v>
@@ -2512,7 +2515,7 @@
         <v>118</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="P6" s="4"/>
       <c r="Q6" s="4" t="s">
@@ -2534,7 +2537,7 @@
         <v>118</v>
       </c>
       <c r="F7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4" t="s">
@@ -2555,7 +2558,7 @@
         <v>118</v>
       </c>
       <c r="O7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="4" t="s">
@@ -2737,10 +2740,10 @@
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2748,10 +2751,10 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2759,13 +2762,13 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2773,10 +2776,10 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2784,10 +2787,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2795,10 +2798,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Data/ArmaniTestData.xlsx
+++ b/src/test/resources/Data/ArmaniTestData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26522"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26424"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59394BC1-618A-4719-81B1-1F22EC8C94D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FEFB850-9214-4D30-BA0B-0791363643A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="app_segment" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="139">
   <si>
     <t>segment</t>
   </si>
@@ -109,10 +109,10 @@
     <t>Loreal@123</t>
   </si>
   <si>
-    <t>7K0BA</t>
-  </si>
-  <si>
-    <t>Loreal@4321</t>
+    <t>ZP0BA</t>
+  </si>
+  <si>
+    <t>123@Loreal</t>
   </si>
   <si>
     <t>RA0BBA</t>
@@ -145,7 +145,7 @@
     <t>Lo@12345</t>
   </si>
   <si>
-    <t>P16003419</t>
+    <t>P16005137</t>
   </si>
   <si>
     <t>PA99327695</t>
@@ -304,6 +304,9 @@
     <t>Yes</t>
   </si>
   <si>
+    <t>no</t>
+  </si>
+  <si>
     <t>MY</t>
   </si>
   <si>
@@ -337,12 +340,18 @@
     <t>First Name</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
     <t>Email</t>
   </si>
   <si>
     <t>Client Name</t>
   </si>
   <si>
+    <t>Lucid</t>
+  </si>
+  <si>
     <t>名前（名）</t>
   </si>
   <si>
@@ -355,12 +364,6 @@
     <t>Mobile Number</t>
   </si>
   <si>
-    <t>Lucid</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Name_dashboard</t>
   </si>
   <si>
@@ -385,7 +388,7 @@
     <t>Client Name_dashboard</t>
   </si>
   <si>
-    <t>a@a.com</t>
+    <t>emptydatatest@gmail.com</t>
   </si>
   <si>
     <t>EmptyData</t>
@@ -400,9 +403,6 @@
     <t>Test</t>
   </si>
   <si>
-    <t>emptydatatest@gmail.com</t>
-  </si>
-  <si>
     <t>C70000000055715</t>
   </si>
   <si>
@@ -418,13 +418,7 @@
     <t>45CA0022781</t>
   </si>
   <si>
-    <t>01ZY7049015</t>
-  </si>
-  <si>
     <t>45j50007894</t>
-  </si>
-  <si>
-    <t>16ZD0006456</t>
   </si>
   <si>
     <t>product1</t>
@@ -572,7 +566,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -594,10 +588,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -915,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1046,10 +1036,10 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1127,9 +1117,6 @@
       <c r="G6" s="6"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{2D0F4920-F208-4AAA-81AB-F940104F2687}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1195,11 +1182,11 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C3" t="s">
-        <v>33</v>
+      <c r="C3" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>34</v>
@@ -1759,7 +1746,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1837,10 +1824,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D3" t="s">
         <v>87</v>
@@ -1861,7 +1848,7 @@
         <v>88</v>
       </c>
       <c r="J3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1875,25 +1862,25 @@
         <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s">
         <v>87</v>
       </c>
       <c r="I4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1933,16 +1920,16 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F6" t="s">
         <v>87</v>
@@ -1957,12 +1944,12 @@
         <v>88</v>
       </c>
       <c r="J6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
         <v>88</v>
@@ -1994,7 +1981,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s">
         <v>88</v>
@@ -2026,7 +2013,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B9" t="s">
         <v>88</v>
@@ -2058,7 +2045,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
         <v>88</v>
@@ -2098,7 +2085,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2108,19 +2095,19 @@
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -2130,10 +2117,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2141,7 +2128,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2149,7 +2136,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2157,10 +2144,10 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2168,54 +2155,54 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" t="s">
         <v>100</v>
       </c>
-      <c r="C10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" t="s">
-        <v>99</v>
-      </c>
       <c r="E10" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2227,13 +2214,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5829C2C0-81BF-4910-A751-FC6CBD6A43B4}">
   <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="6" max="6" width="27.28515625" customWidth="1"/>
     <col min="8" max="8" width="10.140625" customWidth="1"/>
     <col min="15" max="15" width="17" customWidth="1"/>
@@ -2244,52 +2230,52 @@
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -2299,43 +2285,43 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>116</v>
+      <c r="B2" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="13" t="s">
-        <v>116</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P2" s="4"/>
       <c r="Q2" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -2343,46 +2329,46 @@
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F3" s="16">
-        <v>16970033466</v>
+        <v>119</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>122</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="O3" s="16">
-        <v>16970033466</v>
+        <v>119</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>122</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -2397,7 +2383,7 @@
         <v>124</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F4" t="s">
         <v>125</v>
@@ -2409,18 +2395,18 @@
         <v>124</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O4" t="s">
         <v>125</v>
@@ -2434,47 +2420,47 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>122</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -2482,44 +2468,44 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="P6" s="4"/>
       <c r="Q6" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -2527,171 +2513,171 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F7" t="s">
-        <v>129</v>
+        <v>119</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="O7" t="s">
-        <v>129</v>
+        <v>119</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -2712,9 +2698,8 @@
     <hyperlink ref="K10" r:id="rId11" xr:uid="{E1A0ECBA-0B9D-486C-8EB4-3154C838AF89}"/>
     <hyperlink ref="K7" r:id="rId12" xr:uid="{78478ECA-5925-4CB0-AF0C-4CA59C92FDC4}"/>
     <hyperlink ref="K9" r:id="rId13" xr:uid="{2AB4818D-F639-47DA-B335-ED6609EBCDDD}"/>
-    <hyperlink ref="B4" r:id="rId14" xr:uid="{D11A99F9-ECAA-4D9F-A142-BBDB986258B7}"/>
-    <hyperlink ref="B2" r:id="rId15" xr:uid="{A1207EE5-8407-4FE1-AD1E-A85B29158109}"/>
-    <hyperlink ref="K2" r:id="rId16" xr:uid="{510717F6-D167-43F6-9171-2369E2820AD4}"/>
+    <hyperlink ref="K2:K4" r:id="rId14" xr:uid="{436BBE7F-749B-4CD1-9CDD-78F629781633}"/>
+    <hyperlink ref="B4" r:id="rId15" xr:uid="{D11A99F9-ECAA-4D9F-A142-BBDB986258B7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2725,7 +2710,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2740,10 +2725,10 @@
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2751,24 +2736,18 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>132</v>
-      </c>
-      <c r="C3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2776,10 +2755,10 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2787,10 +2766,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2798,10 +2777,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Data/ArmaniTestData.xlsx
+++ b/src/test/resources/Data/ArmaniTestData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26424"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26522"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FEFB850-9214-4D30-BA0B-0791363643A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="245" documentId="8_{347E3A18-BC77-47F1-AF8A-0725BB4A7705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0A33F64-F651-45A7-A4B2-0571F0BB70D8}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="app_segment" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="141">
   <si>
     <t>segment</t>
   </si>
@@ -109,10 +109,10 @@
     <t>Loreal@123</t>
   </si>
   <si>
-    <t>ZP0BA</t>
-  </si>
-  <si>
-    <t>123@Loreal</t>
+    <t>7K0BA</t>
+  </si>
+  <si>
+    <t>Loreal@4321</t>
   </si>
   <si>
     <t>RA0BBA</t>
@@ -145,7 +145,7 @@
     <t>Lo@12345</t>
   </si>
   <si>
-    <t>P16005137</t>
+    <t>P16003419</t>
   </si>
   <si>
     <t>PA99327695</t>
@@ -304,9 +304,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>MY</t>
   </si>
   <si>
@@ -340,30 +337,30 @@
     <t>First Name</t>
   </si>
   <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Client Name</t>
+  </si>
+  <si>
+    <t>名前（名）</t>
+  </si>
+  <si>
+    <t>National Id</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Mobile Number</t>
+  </si>
+  <si>
+    <t>Lucid</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Client Name</t>
-  </si>
-  <si>
-    <t>Lucid</t>
-  </si>
-  <si>
-    <t>名前（名）</t>
-  </si>
-  <si>
-    <t>National Id</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Mobile Number</t>
-  </si>
-  <si>
     <t>Name_dashboard</t>
   </si>
   <si>
@@ -388,21 +385,24 @@
     <t>Client Name_dashboard</t>
   </si>
   <si>
+    <t>a@a.com</t>
+  </si>
+  <si>
+    <t>EmptyData</t>
+  </si>
+  <si>
+    <t>Empty</t>
+  </si>
+  <si>
+    <t>45WM6000403</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
     <t>emptydatatest@gmail.com</t>
   </si>
   <si>
-    <t>EmptyData</t>
-  </si>
-  <si>
-    <t>Empty</t>
-  </si>
-  <si>
-    <t>45WM6000403</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>C70000000055715</t>
   </si>
   <si>
@@ -418,7 +418,13 @@
     <t>45CA0022781</t>
   </si>
   <si>
+    <t>01ZY7049015</t>
+  </si>
+  <si>
     <t>45j50007894</t>
+  </si>
+  <si>
+    <t>16ZD0006456</t>
   </si>
   <si>
     <t>product1</t>
@@ -566,7 +572,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -588,6 +594,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -905,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1036,10 +1046,10 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1117,6 +1127,9 @@
       <c r="G6" s="6"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{2D0F4920-F208-4AAA-81AB-F940104F2687}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1182,11 +1195,11 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>23</v>
+      <c r="C3" t="s">
+        <v>33</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>34</v>
@@ -1267,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D55CBA2-5253-4CF8-9709-8064EBA01692}">
   <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1746,7 +1759,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1824,10 +1837,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
         <v>87</v>
@@ -1848,7 +1861,7 @@
         <v>88</v>
       </c>
       <c r="J3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1862,25 +1875,25 @@
         <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H4" t="s">
         <v>87</v>
       </c>
       <c r="I4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1920,16 +1933,16 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F6" t="s">
         <v>87</v>
@@ -1944,12 +1957,12 @@
         <v>88</v>
       </c>
       <c r="J6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s">
         <v>88</v>
@@ -1981,7 +1994,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s">
         <v>88</v>
@@ -2013,7 +2026,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s">
         <v>88</v>
@@ -2045,7 +2058,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
         <v>88</v>
@@ -2085,7 +2098,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2095,19 +2108,19 @@
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -2117,10 +2130,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" t="s">
         <v>99</v>
-      </c>
-      <c r="C2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2128,7 +2141,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2136,7 +2149,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2144,10 +2157,10 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2155,54 +2168,54 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" t="s">
         <v>99</v>
       </c>
-      <c r="D10" t="s">
-        <v>100</v>
-      </c>
       <c r="E10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2215,11 +2228,12 @@
   <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="6" max="6" width="27.28515625" customWidth="1"/>
     <col min="8" max="8" width="10.140625" customWidth="1"/>
     <col min="15" max="15" width="17" customWidth="1"/>
@@ -2230,52 +2244,52 @@
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -2285,43 +2299,43 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>117</v>
+      <c r="B2" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J2" s="4"/>
-      <c r="K2" s="4" t="s">
-        <v>117</v>
+      <c r="K2" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="P2" s="4"/>
       <c r="Q2" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -2329,46 +2343,46 @@
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>120</v>
+      <c r="F3" s="16">
+        <v>16970033466</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>122</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="N3" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>120</v>
+      <c r="O3" s="16">
+        <v>16970033466</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>122</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -2383,7 +2397,7 @@
         <v>124</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F4" t="s">
         <v>125</v>
@@ -2395,18 +2409,18 @@
         <v>124</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N4" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="O4" t="s">
         <v>125</v>
@@ -2420,47 +2434,47 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>122</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N5" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -2468,44 +2482,44 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>119</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I6" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N6" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="N6" s="4" t="s">
-        <v>119</v>
-      </c>
       <c r="O6" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="P6" s="4"/>
       <c r="Q6" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -2513,171 +2527,171 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>120</v>
+      <c r="F7" t="s">
+        <v>129</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N7" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="N7" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>120</v>
+      <c r="O7" t="s">
+        <v>129</v>
       </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N8" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="O8" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N9" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="O9" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N10" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="O10" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -2698,8 +2712,9 @@
     <hyperlink ref="K10" r:id="rId11" xr:uid="{E1A0ECBA-0B9D-486C-8EB4-3154C838AF89}"/>
     <hyperlink ref="K7" r:id="rId12" xr:uid="{78478ECA-5925-4CB0-AF0C-4CA59C92FDC4}"/>
     <hyperlink ref="K9" r:id="rId13" xr:uid="{2AB4818D-F639-47DA-B335-ED6609EBCDDD}"/>
-    <hyperlink ref="K2:K4" r:id="rId14" xr:uid="{436BBE7F-749B-4CD1-9CDD-78F629781633}"/>
-    <hyperlink ref="B4" r:id="rId15" xr:uid="{D11A99F9-ECAA-4D9F-A142-BBDB986258B7}"/>
+    <hyperlink ref="B4" r:id="rId14" xr:uid="{D11A99F9-ECAA-4D9F-A142-BBDB986258B7}"/>
+    <hyperlink ref="B2" r:id="rId15" xr:uid="{A1207EE5-8407-4FE1-AD1E-A85B29158109}"/>
+    <hyperlink ref="K2" r:id="rId16" xr:uid="{510717F6-D167-43F6-9171-2369E2820AD4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2710,7 +2725,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2725,10 +2740,10 @@
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2736,18 +2751,24 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" t="s">
+        <v>133</v>
+      </c>
       <c r="D3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2755,10 +2776,10 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2766,10 +2787,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2777,10 +2798,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
